--- a/data/trans_orig/P37C3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Habitat-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10230</v>
+        <v>8929</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003208850331192471</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01407593006199923</v>
+        <v>0.01228560820000062</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10728</v>
+        <v>9164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001654235781946369</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007609637507922647</v>
+        <v>0.006500109697539357</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>7053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3176</v>
+        <v>3511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12705</v>
+        <v>13047</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01032657821491883</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00465043310003405</v>
+        <v>0.005140803921181791</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01860115215384425</v>
+        <v>0.01910133568794559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -825,19 +825,19 @@
         <v>3200</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6879</v>
+        <v>7078</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004403104141812571</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001608500518733808</v>
+        <v>0.001619902151024036</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.009465508860674937</v>
+        <v>0.009738780893162279</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -846,19 +846,19 @@
         <v>10253</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5420</v>
+        <v>5285</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16673</v>
+        <v>15957</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007272891768433012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003844780745325536</v>
+        <v>0.003748787950514549</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01182611571458072</v>
+        <v>0.01131882199071343</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>35159</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23505</v>
+        <v>23502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53371</v>
+        <v>49521</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05147499002276345</v>
+        <v>0.05147499002276346</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0344133628303448</v>
+        <v>0.03440916396682025</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07813943919853297</v>
+        <v>0.0725028328374942</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -896,19 +896,19 @@
         <v>23335</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16788</v>
+        <v>16403</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31852</v>
+        <v>32301</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03210676840565253</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02309918614023705</v>
+        <v>0.02256932350473513</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04382492052307553</v>
+        <v>0.0444434388716691</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -917,19 +917,19 @@
         <v>58494</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44042</v>
+        <v>44007</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77501</v>
+        <v>76450</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.04149022852726998</v>
+        <v>0.04149022852726997</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03123929241684941</v>
+        <v>0.03121460068066676</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05497237102535065</v>
+        <v>0.05422671416935703</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>147095</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125084</v>
+        <v>125736</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>171913</v>
+        <v>169856</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2153589936917175</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1831322865065644</v>
+        <v>0.1840878194560109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2516941706681958</v>
+        <v>0.2486817538166246</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>260</v>
@@ -967,19 +967,19 @@
         <v>135979</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120214</v>
+        <v>120140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>153017</v>
+        <v>152122</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1870942922620713</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1654029307796596</v>
+        <v>0.1653009440604014</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2105368021339837</v>
+        <v>0.2093056510615558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>425</v>
@@ -988,19 +988,19 @@
         <v>283074</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>255004</v>
+        <v>256451</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>312158</v>
+        <v>312312</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2007878932522726</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1808772949153463</v>
+        <v>0.1819034768715334</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2214176778856254</v>
+        <v>0.2215268949030738</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>493717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468025</v>
+        <v>468348</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>518770</v>
+        <v>519341</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7228394380706002</v>
+        <v>0.7228394380706001</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6852246103664487</v>
+        <v>0.6856972036941928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7595187906851658</v>
+        <v>0.7603551638129664</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>922</v>
@@ -1038,19 +1038,19 @@
         <v>561947</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>543382</v>
+        <v>541881</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>579538</v>
+        <v>577549</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7731869848592713</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7476434770800712</v>
+        <v>0.7455775553882598</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7973901690443332</v>
+        <v>0.7946535211823679</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1440</v>
@@ -1059,19 +1059,19 @@
         <v>1055664</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1023242</v>
+        <v>1022423</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1089212</v>
+        <v>1083970</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7487947506700779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7257977416314731</v>
+        <v>0.7252170699439801</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7725908499084762</v>
+        <v>0.7688731730293983</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>4917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1207</v>
+        <v>1301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11978</v>
+        <v>12058</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004740866171608697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001164046157407796</v>
+        <v>0.001254885521550465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01154953805732181</v>
+        <v>0.0116265579015817</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1184,19 +1184,19 @@
         <v>2138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5244</v>
+        <v>5723</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002005252000216373</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0006391457860735538</v>
+        <v>0.0006459106893825921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.004917970189746702</v>
+        <v>0.005367168197819137</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1205,19 +1205,19 @@
         <v>7055</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2720</v>
+        <v>3080</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14273</v>
+        <v>14445</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00335415848542225</v>
+        <v>0.003354158485422249</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001293402403100621</v>
+        <v>0.001464259585940155</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006785693723505174</v>
+        <v>0.00686751394318626</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>8283</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3901</v>
+        <v>4501</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15312</v>
+        <v>15576</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007986388195350604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003761118749119772</v>
+        <v>0.004340205927195064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01476353579264946</v>
+        <v>0.01501868086033237</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1255,19 +1255,19 @@
         <v>8910</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4873</v>
+        <v>4890</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15537</v>
+        <v>15742</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008357034181480599</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004570212509280731</v>
+        <v>0.004586178892802393</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01457216857096882</v>
+        <v>0.01476478947702286</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -1276,19 +1276,19 @@
         <v>17193</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11539</v>
+        <v>10559</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26133</v>
+        <v>25977</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008174272014346548</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005485962705364633</v>
+        <v>0.005019922227336384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01242463033042004</v>
+        <v>0.01235013358592929</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>60061</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45411</v>
+        <v>45476</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>78435</v>
+        <v>78368</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05791045036144087</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0437849594833009</v>
+        <v>0.04384761258776446</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07562661356131112</v>
+        <v>0.07556177684837141</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -1326,19 +1326,19 @@
         <v>34152</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25269</v>
+        <v>25518</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44135</v>
+        <v>44707</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03203157798586522</v>
+        <v>0.03203157798586523</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02369985847396719</v>
+        <v>0.02393388698324406</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04139432039703029</v>
+        <v>0.04193074600952817</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>107</v>
@@ -1347,19 +1347,19 @@
         <v>94213</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>75939</v>
+        <v>76459</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>115878</v>
+        <v>114438</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04479221475338944</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03610379899038083</v>
+        <v>0.03635092624874179</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05509244453522771</v>
+        <v>0.05440739625967608</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>251611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>220833</v>
+        <v>219449</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>281539</v>
+        <v>281854</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.242600888127307</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.212925072954402</v>
+        <v>0.2115907474343759</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2714570212996971</v>
+        <v>0.2717606896916319</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>367</v>
@@ -1397,19 +1397,19 @@
         <v>235742</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>213380</v>
+        <v>214613</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>261940</v>
+        <v>261583</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2211042392213618</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2001307509663319</v>
+        <v>0.2012865521241223</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2456751095669406</v>
+        <v>0.245340575556046</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>600</v>
@@ -1418,19 +1418,19 @@
         <v>487354</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>447701</v>
+        <v>447660</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>525257</v>
+        <v>524926</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2317040414239747</v>
+        <v>0.2317040414239746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2128520735990497</v>
+        <v>0.2128325685902404</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2497246917170567</v>
+        <v>0.2495673859761844</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>712268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>679608</v>
+        <v>679271</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>743578</v>
+        <v>746482</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6867614071442929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6552711413465254</v>
+        <v>0.6549458669071699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7169502901627574</v>
+        <v>0.7197506126597798</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1076</v>
@@ -1468,19 +1468,19 @@
         <v>785262</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>758110</v>
+        <v>758285</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>809792</v>
+        <v>808235</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.736501896611076</v>
+        <v>0.7365018966110759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7110354458337826</v>
+        <v>0.7112000623499511</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7595086681156855</v>
+        <v>0.7580479715135231</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1729</v>
@@ -1489,19 +1489,19 @@
         <v>1497530</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1456389</v>
+        <v>1452227</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1541069</v>
+        <v>1535840</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.711975313322867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.692415660169231</v>
+        <v>0.6904369964453255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7326753637066039</v>
+        <v>0.7301892404560584</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>3385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9221</v>
+        <v>9143</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004260776422041399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001048656996901705</v>
+        <v>0.001031706590635212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01160717197496355</v>
+        <v>0.01150803552759396</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1614,19 +1614,19 @@
         <v>3562</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1002</v>
+        <v>1188</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10054</v>
+        <v>9895</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.004407016174741104</v>
+        <v>0.004407016174741105</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001239076317658059</v>
+        <v>0.001470283806844035</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01243881687560453</v>
+        <v>0.01224263241260448</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1635,19 +1635,19 @@
         <v>6947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2817</v>
+        <v>2850</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14281</v>
+        <v>15045</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004334526529959911</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001757779023193984</v>
+        <v>0.001778285518997106</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008910165448938077</v>
+        <v>0.009386894001187113</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>7705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3164</v>
+        <v>3037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17568</v>
+        <v>17199</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00969825433203078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003982562071814991</v>
+        <v>0.003822525689772614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02211313066303555</v>
+        <v>0.02164859250110988</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1685,19 +1685,19 @@
         <v>5231</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2505</v>
+        <v>2179</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11224</v>
+        <v>11521</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.00647204378548326</v>
+        <v>0.006472043785483261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003098912083652047</v>
+        <v>0.002696109664565499</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0138865053366014</v>
+        <v>0.01425327926637477</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1706,19 +1706,19 @@
         <v>12936</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6805</v>
+        <v>7255</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22547</v>
+        <v>23383</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008071245453916083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004245835553012297</v>
+        <v>0.0045268896114299</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0140680994614251</v>
+        <v>0.01458914793988438</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>50843</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35961</v>
+        <v>36025</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70894</v>
+        <v>69510</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06399707613379646</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04526519028583069</v>
+        <v>0.04534564664788138</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0892348232051341</v>
+        <v>0.08749360706259438</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -1756,19 +1756,19 @@
         <v>30462</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21431</v>
+        <v>21810</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45901</v>
+        <v>46602</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.03768747085484887</v>
+        <v>0.03768747085484888</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02651439955758766</v>
+        <v>0.02698354816782363</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05678837959881533</v>
+        <v>0.05765628911084889</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>73</v>
@@ -1777,19 +1777,19 @@
         <v>81305</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>62725</v>
+        <v>63164</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>104503</v>
+        <v>106322</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05072889020763328</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0391361161617528</v>
+        <v>0.03941012896753589</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06520286370646786</v>
+        <v>0.06633789206390656</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>234157</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>206082</v>
+        <v>203782</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>267724</v>
+        <v>269856</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2947373668754352</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2593983081925499</v>
+        <v>0.2565039769399126</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3369886632174772</v>
+        <v>0.3396721244805807</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>236</v>
@@ -1827,19 +1827,19 @@
         <v>180572</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>161148</v>
+        <v>158640</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>203254</v>
+        <v>202006</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2234037362360609</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1993726260510499</v>
+        <v>0.196270025410197</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2514667399607991</v>
+        <v>0.2499225390214072</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>426</v>
@@ -1848,19 +1848,19 @@
         <v>414729</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>378010</v>
+        <v>377722</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>452750</v>
+        <v>448286</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2587631337359965</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.235852786146447</v>
+        <v>0.2356732862039618</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2824856843798308</v>
+        <v>0.2797002638470704</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>498371</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>463594</v>
+        <v>465354</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>526710</v>
+        <v>531892</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6273065262366962</v>
+        <v>0.6273065262366961</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.583532211095648</v>
+        <v>0.5857484387347723</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6629772359679749</v>
+        <v>0.6695002658762582</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>760</v>
@@ -1898,19 +1898,19 @@
         <v>588448</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>565388</v>
+        <v>563635</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>610901</v>
+        <v>611341</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7280297329488657</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6994999383556049</v>
+        <v>0.6973303562990524</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7558087452935554</v>
+        <v>0.7563527827989328</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1193</v>
@@ -1919,19 +1919,19 @@
         <v>1086819</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1046866</v>
+        <v>1049363</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1127420</v>
+        <v>1124266</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6781022040724942</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6531746131400288</v>
+        <v>0.6547322703152277</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7034345308957937</v>
+        <v>0.7014669679776635</v>
       </c>
     </row>
     <row r="21">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5741</v>
+        <v>4667</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001504420522206036</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005840252419090918</v>
+        <v>0.004748081685432468</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2044,19 +2044,19 @@
         <v>3983</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1216</v>
+        <v>1169</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11002</v>
+        <v>10094</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.003583263161279667</v>
+        <v>0.003583263161279668</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00109365024653978</v>
+        <v>0.001052080899122928</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009897371109569161</v>
+        <v>0.009080365344960331</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2065,19 +2065,19 @@
         <v>5462</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2323</v>
+        <v>2378</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12029</v>
+        <v>12192</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002607667542478091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001108830664166459</v>
+        <v>0.001135422084592971</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005743207344994633</v>
+        <v>0.005820719444477015</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>15764</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8938</v>
+        <v>8599</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25976</v>
+        <v>25616</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01603739082614621</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009093076736909395</v>
+        <v>0.008747546037509508</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02642589922264153</v>
+        <v>0.02606011139399949</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2115,19 +2115,19 @@
         <v>5435</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2433</v>
+        <v>2537</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10319</v>
+        <v>10490</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.00488920940162371</v>
+        <v>0.004889209401623711</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002188764657527432</v>
+        <v>0.002282543287478056</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.00928329491651873</v>
+        <v>0.009436584130385542</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -2136,19 +2136,19 @@
         <v>21199</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>13941</v>
+        <v>12478</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32340</v>
+        <v>32275</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0101210228881009</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006655862934044251</v>
+        <v>0.005957290008483528</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01543990764578465</v>
+        <v>0.01540906025252538</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>55587</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41996</v>
+        <v>40374</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>74583</v>
+        <v>72600</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05654966425794418</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04272396780922133</v>
+        <v>0.04107335555709292</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07587567663385844</v>
+        <v>0.07385829826841961</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>80</v>
@@ -2186,19 +2186,19 @@
         <v>64865</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50575</v>
+        <v>50189</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80968</v>
+        <v>82022</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05835377189637554</v>
+        <v>0.05835377189637555</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04549796332079087</v>
+        <v>0.04515132179474692</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07284062244142551</v>
+        <v>0.07378796347201362</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>129</v>
@@ -2207,19 +2207,19 @@
         <v>120452</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>99137</v>
+        <v>101629</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>142272</v>
+        <v>146794</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05750710872196402</v>
+        <v>0.05750710872196403</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04733073421984715</v>
+        <v>0.04852059262759486</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06792472303295172</v>
+        <v>0.07008368879859705</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>182067</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>157324</v>
+        <v>157695</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>213363</v>
+        <v>209492</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1852213813474076</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1600500396016264</v>
+        <v>0.1604272421613289</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2170597333768847</v>
+        <v>0.2131222308763986</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>300</v>
@@ -2257,19 +2257,19 @@
         <v>214618</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>191398</v>
+        <v>189987</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>238611</v>
+        <v>238565</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1930741803124713</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1721852156615868</v>
+        <v>0.1709160002517509</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.21465859116759</v>
+        <v>0.2146174924827302</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>482</v>
@@ -2278,19 +2278,19 @@
         <v>396685</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>362013</v>
+        <v>360842</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>430212</v>
+        <v>431074</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1893888815208997</v>
+        <v>0.1893888815208996</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1728355898376555</v>
+        <v>0.1722764044440803</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2053958404437909</v>
+        <v>0.2058070720793714</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>728072</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>696233</v>
+        <v>697379</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>756273</v>
+        <v>756791</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7406871430462958</v>
+        <v>0.7406871430462959</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7082962834503564</v>
+        <v>0.7094623789403728</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7693774977195407</v>
+        <v>0.7699041709807785</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1158</v>
@@ -2328,19 +2328,19 @@
         <v>822683</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>795119</v>
+        <v>796669</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>848931</v>
+        <v>849674</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7400995752282498</v>
+        <v>0.74009957522825</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7153026587576761</v>
+        <v>0.7166974083857865</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7637131890931096</v>
+        <v>0.7643809485414008</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1910</v>
@@ -2349,19 +2349,19 @@
         <v>1550755</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1508218</v>
+        <v>1512495</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1589084</v>
+        <v>1590232</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7403753193265572</v>
+        <v>0.7403753193265573</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7200669668032069</v>
+        <v>0.7221087963919474</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7586745925533043</v>
+        <v>0.7592227762596896</v>
       </c>
     </row>
     <row r="27">
@@ -2453,19 +2453,19 @@
         <v>9781</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4467</v>
+        <v>4563</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18315</v>
+        <v>18180</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.002796425818306297</v>
+        <v>0.002796425818306296</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0012771118814964</v>
+        <v>0.001304672460616414</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005236397345309972</v>
+        <v>0.005197970852162368</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -2474,19 +2474,19 @@
         <v>12015</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6284</v>
+        <v>6660</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21274</v>
+        <v>22247</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003236149254795174</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001692424432490802</v>
+        <v>0.001793644640580714</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005729802776298577</v>
+        <v>0.005991953921830401</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -2495,19 +2495,19 @@
         <v>21796</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14228</v>
+        <v>13408</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35416</v>
+        <v>34165</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003022851372539573</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001973283222637381</v>
+        <v>0.001859459340715899</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.004911795934760416</v>
+        <v>0.004738306754047687</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>38805</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28341</v>
+        <v>28742</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52698</v>
+        <v>54719</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01109489610331873</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008103112427918153</v>
+        <v>0.008217649163057911</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01506695123150489</v>
+        <v>0.01564485393150339</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -2545,19 +2545,19 @@
         <v>22776</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15216</v>
+        <v>16308</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32608</v>
+        <v>33587</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00613447104316478</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004098167884489596</v>
+        <v>0.004392209242766947</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.008782463957054867</v>
+        <v>0.009046009475248347</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -2566,19 +2566,19 @@
         <v>61582</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>48591</v>
+        <v>48576</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>77888</v>
+        <v>81009</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.008540638357936078</v>
+        <v>0.008540638357936082</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006739000220794249</v>
+        <v>0.006736882262105875</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01080203428236546</v>
+        <v>0.01123497658083996</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>201650</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>173545</v>
+        <v>171895</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>234808</v>
+        <v>235692</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05765381727292413</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04961825634868368</v>
+        <v>0.04914656960712707</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0671341210535113</v>
+        <v>0.06738678043006616</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>203</v>
@@ -2616,19 +2616,19 @@
         <v>152814</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>132092</v>
+        <v>131341</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>177733</v>
+        <v>181371</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04115810866377771</v>
+        <v>0.04115810866377772</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03557678581837975</v>
+        <v>0.03537469072184537</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04786956667918318</v>
+        <v>0.04884937393968353</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>378</v>
@@ -2637,19 +2637,19 @@
         <v>354464</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>319522</v>
+        <v>318066</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>397752</v>
+        <v>398016</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04915972836531348</v>
+        <v>0.04915972836531349</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04431367328461238</v>
+        <v>0.04411175157125071</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0551632683041173</v>
+        <v>0.05519981261963439</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>814931</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>761834</v>
+        <v>762484</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>870966</v>
+        <v>866483</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2329975100795434</v>
+        <v>0.2329975100795433</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2178166715233937</v>
+        <v>0.2180025467419371</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2490185620604919</v>
+        <v>0.2477369000294694</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1163</v>
@@ -2687,19 +2687,19 @@
         <v>766911</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>724804</v>
+        <v>725107</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>813420</v>
+        <v>816009</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2065555132947037</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1952145383198225</v>
+        <v>0.1952962000423661</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2190820848110984</v>
+        <v>0.2197791882316867</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1933</v>
@@ -2708,19 +2708,19 @@
         <v>1581842</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1510234</v>
+        <v>1511330</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1649005</v>
+        <v>1654650</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.219381806934748</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2094507602774608</v>
+        <v>0.2096027474827305</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2286964582137976</v>
+        <v>0.2294794182366638</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>2432427</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2366265</v>
+        <v>2374657</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2491225</v>
+        <v>2491272</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.6954573507259075</v>
+        <v>0.6954573507259074</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6765406970595357</v>
+        <v>0.678940121546344</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7122682287140388</v>
+        <v>0.7122816895449512</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3916</v>
@@ -2758,19 +2758,19 @@
         <v>2758340</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2709386</v>
+        <v>2706230</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2804547</v>
+        <v>2804747</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7429157577435586</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7297307498135577</v>
+        <v>0.7288806616701182</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7553609437811235</v>
+        <v>0.7554148476196643</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6272</v>
@@ -2779,19 +2779,19 @@
         <v>5190767</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5119293</v>
+        <v>5117818</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5266407</v>
+        <v>5273851</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7198949749694626</v>
+        <v>0.7198949749694629</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7099824179624972</v>
+        <v>0.7097777905767035</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7303852735735995</v>
+        <v>0.731417680049927</v>
       </c>
     </row>
     <row r="33">
